--- a/resultados/sensibilidad/N/N_sintesis_sensibilidad.xlsx
+++ b/resultados/sensibilidad/N/N_sintesis_sensibilidad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e295d04a357c052a/puc/Semestre 6/Opti/Proyecto/Proyecto_Gurobi/resultados/sensibilidad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e295d04a357c052a/puc/Semestre 6/Opti/Proyecto/Proyecto_Gurobi/resultados/sensibilidad/N/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_F25DC773A252ABDACC10485D695C75165ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEC6BA40-2FFE-47A1-AFE3-D0F0C37D5848}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="11_F25DC773A252ABDACC10485D695C75165ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F41D4F9F-4245-4542-A16B-DB378B493AA2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12280" yWindow="2620" windowWidth="21600" windowHeight="11000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Parametro a variar</t>
   </si>
@@ -86,16 +86,10 @@
     <t>E3 (valor original)</t>
   </si>
   <si>
-    <t>comentarios sobre la iteracion</t>
-  </si>
-  <si>
-    <t>todas las rutas ocupadas</t>
-  </si>
-  <si>
-    <t>se dejó de usar 6 Norte con los Castanos</t>
-  </si>
-  <si>
-    <t>de aquí en adelante, usa la ruta 2 (marinero ugarte)</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>variacion porcentual</t>
   </si>
 </sst>
 </file>
@@ -103,21 +97,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +131,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,20 +428,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -473,7 +461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -526,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -579,7 +567,7 @@
         <v>5127.3576924179997</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -632,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -701,21 +689,72 @@
         <v>5127.3576924179997</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
+      <c r="D7">
+        <f>(D6-$C$6)/$C$6 * 100</f>
+        <v>-18.413283129792525</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:R7" si="11">(E6-$C$6)/$C$6 * 100</f>
+        <v>-26.337078745804355</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="11"/>
+        <v>-24.09883127192732</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="11"/>
+        <v>-25.806052705695937</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="11"/>
+        <v>-21.893905886626797</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="11"/>
+        <v>-17.183316695399732</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="11"/>
+        <v>-1.042044731172369E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="11"/>
+        <v>58.320708286101741</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="11"/>
+        <v>161.09681547983703</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="11"/>
+        <v>679.13389894401394</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="11"/>
+        <v>677.05562519626449</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="11"/>
+        <v>675.80866094761484</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="11"/>
+        <v>675.393006198065</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="11"/>
+        <v>675.06048239842494</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="11"/>
+        <v>674.985664543506</v>
       </c>
     </row>
   </sheetData>
